--- a/examples/wangetal2018/out/NetworkFiles/AC_0.2_nfc_network_design.xlsx
+++ b/examples/wangetal2018/out/NetworkFiles/AC_0.2_nfc_network_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
   <si>
     <t>pipe_name</t>
   </si>
@@ -51,7 +51,10 @@
     <t>PI01_remaining</t>
   </si>
   <si>
-    <t>PI02</t>
+    <t>PI02_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI02_remaining</t>
   </si>
   <si>
     <t>PI03</t>
@@ -93,6 +96,9 @@
     <t>N02</t>
   </si>
   <si>
+    <t>N_post_C_0_1</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
@@ -126,6 +132,9 @@
     <t>N_pre_C_0_0</t>
   </si>
   <si>
+    <t>N_pre_C_0_1</t>
+  </si>
+  <si>
     <t>N03</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
   </si>
   <si>
     <t>C_0_0</t>
+  </si>
+  <si>
+    <t>C_0_1</t>
   </si>
   <si>
     <t>CS1</t>
@@ -592,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,16 +641,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>641.35</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="F2">
         <v>0.012</v>
@@ -647,7 +659,7 @@
         <v>9.525</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -655,16 +667,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>641.35</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="F3">
         <v>0.012</v>
@@ -673,7 +685,7 @@
         <v>9.525</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -681,16 +693,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>641.35</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="F4">
         <v>0.012</v>
@@ -699,7 +711,7 @@
         <v>9.525</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -707,16 +719,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>641.35</v>
       </c>
       <c r="E5">
-        <v>31.5</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="F5">
         <v>0.012</v>
@@ -725,7 +737,7 @@
         <v>9.525</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -733,16 +745,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>641.35</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>31.5</v>
       </c>
       <c r="F6">
         <v>0.012</v>
@@ -751,7 +763,7 @@
         <v>9.525</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -759,16 +771,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>641.35</v>
       </c>
       <c r="E7">
-        <v>32.5</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0.012</v>
@@ -777,7 +789,7 @@
         <v>9.525</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -785,16 +797,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>641.35</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="F8">
         <v>0.012</v>
@@ -803,7 +815,7 @@
         <v>9.525</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -811,16 +823,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>641.35</v>
       </c>
       <c r="E9">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>0.012</v>
@@ -829,7 +841,7 @@
         <v>9.525</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -837,16 +849,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>641.35</v>
       </c>
       <c r="E10">
-        <v>32.5</v>
+        <v>17.5</v>
       </c>
       <c r="F10">
         <v>0.012</v>
@@ -855,7 +867,7 @@
         <v>9.525</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -863,16 +875,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>641.35</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>32.5</v>
       </c>
       <c r="F11">
         <v>0.012</v>
@@ -881,7 +893,7 @@
         <v>9.525</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -889,10 +901,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>641.35</v>
@@ -907,7 +919,7 @@
         <v>9.525</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -915,10 +927,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>641.35</v>
@@ -933,7 +945,7 @@
         <v>9.525</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -941,10 +953,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>641.35</v>
@@ -959,7 +971,33 @@
         <v>9.525</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>641.35</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>0.012</v>
+      </c>
+      <c r="G15">
+        <v>9.525</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -977,15 +1015,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>4.865822962046021</v>
@@ -993,7 +1031,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>4.865822962046021</v>
@@ -1001,7 +1039,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>4.865822962046021</v>
@@ -1009,7 +1047,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>4.865822962046021</v>
@@ -1017,7 +1055,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>4.865822962046021</v>
@@ -1025,7 +1063,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>4.865822962046021</v>
@@ -1033,7 +1071,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>4.865822962046021</v>
@@ -1041,7 +1079,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>4.865822962046021</v>
@@ -1049,7 +1087,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>4.865822962046021</v>
@@ -1057,7 +1095,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>4.865822962046021</v>
@@ -1065,7 +1103,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>4.865822962046021</v>
@@ -1073,7 +1111,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>4.865822962046021</v>
@@ -1081,7 +1119,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>4.865822962046021</v>
@@ -1089,7 +1127,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>4.865822962046021</v>
@@ -1097,7 +1135,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>4.865822962046021</v>
@@ -1105,7 +1143,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>4.865822962046021</v>
@@ -1113,7 +1151,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>4.865822962046021</v>
@@ -1121,7 +1159,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>4.865822962046021</v>
@@ -1129,7 +1167,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>4.865822962046021</v>
@@ -1137,7 +1175,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>4.865822962046021</v>
@@ -1145,7 +1183,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>4.865822962046021</v>
@@ -1153,7 +1191,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>4.865822962046021</v>
@@ -1161,9 +1199,25 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
         <v>4.865822962046021</v>
       </c>
     </row>
@@ -1174,7 +1228,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1182,7 +1236,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1191,30 +1245,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>4.865822962046021</v>
@@ -1234,19 +1288,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>4.865822962046021</v>
       </c>
       <c r="E3">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1260,10 +1314,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -1272,7 +1326,7 @@
         <v>4.865822962046021</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1286,13 +1340,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>4.865822962046021</v>
@@ -1312,10 +1366,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1338,19 +1392,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>4.865822962046021</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -1364,19 +1418,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>4.865822962046021</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1390,19 +1444,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>4.865822962046021</v>
       </c>
       <c r="E9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1416,19 +1470,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>4.865822962046021</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1437,6 +1491,32 @@
         <v>0.78</v>
       </c>
       <c r="H10">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.78</v>
+      </c>
+      <c r="H11">
         <v>0.357</v>
       </c>
     </row>
@@ -1455,24 +1535,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>4.865822962046021</v>
@@ -1493,21 +1573,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1150.5204</v>
@@ -1515,10 +1595,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>2991.353</v>
@@ -1526,10 +1606,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>2301.0408</v>
@@ -1550,15 +1630,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -1566,7 +1646,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>0.2</v>

--- a/examples/wangetal2018/out/NetworkFiles/AC_0.2_nfc_network_design.xlsx
+++ b/examples/wangetal2018/out/NetworkFiles/AC_0.2_nfc_network_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="112">
   <si>
     <t>pipe_name</t>
   </si>
@@ -45,90 +45,192 @@
     <t>steel_grade</t>
   </si>
   <si>
-    <t>PI01_pre_C_0_0</t>
-  </si>
-  <si>
-    <t>PI01_remaining</t>
-  </si>
-  <si>
-    <t>PI02_pre_C_0_1</t>
-  </si>
-  <si>
-    <t>PI02_remaining</t>
-  </si>
-  <si>
-    <t>PI03</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_0</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_1</t>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1_pre_C_0_0</t>
+  </si>
+  <si>
+    <t>PI01_1_remaining</t>
+  </si>
+  <si>
+    <t>PI01</t>
+  </si>
+  <si>
+    <t>PI02_0_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI02_0_remaining</t>
+  </si>
+  <si>
+    <t>PI02</t>
+  </si>
+  <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
+    <t>PI03_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>PI03_remaining</t>
+  </si>
+  <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>PI04_1_remaining</t>
+  </si>
+  <si>
+    <t>PI04_pre_C_1_2</t>
   </si>
   <si>
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_2</t>
-  </si>
-  <si>
-    <t>PI05_remaining</t>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>PI05_1_remaining</t>
+  </si>
+  <si>
+    <t>PI05</t>
+  </si>
+  <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
   </si>
   <si>
     <t>PI06</t>
   </si>
   <si>
-    <t>PI07_remaining</t>
+    <t>PI07_0_remaining</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
+    <t>PI07</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
   </si>
   <si>
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09_remaining</t>
+    <t>PI09_0_remaining</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
+    <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N_post_C_0_0</t>
   </si>
   <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
     <t>N_post_C_0_1</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
+    <t>N_post_C_1_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
-    <t>N_post_C_1_0</t>
+    <t>N04_0</t>
   </si>
   <si>
     <t>N_post_C_1_1</t>
   </si>
   <si>
+    <t>N04_1</t>
+  </si>
+  <si>
+    <t>N_post_C_1_2</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
-    <t>N_post_C_1_2</t>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N_post_C_1_3</t>
+  </si>
+  <si>
+    <t>N05_1</t>
   </si>
   <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_2_0</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_3_0</t>
   </si>
   <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
     <t>N_pre_C_0_0</t>
   </si>
   <si>
@@ -147,6 +249,9 @@
     <t>N_pre_C_1_2</t>
   </si>
   <si>
+    <t>N_pre_C_1_3</t>
+  </si>
+  <si>
     <t>N06</t>
   </si>
   <si>
@@ -205,6 +310,9 @@
   </si>
   <si>
     <t>C_1_2</t>
+  </si>
+  <si>
+    <t>C_1_3</t>
   </si>
   <si>
     <t>CS2</t>
@@ -604,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -641,16 +749,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>641.35</v>
       </c>
       <c r="E2">
-        <v>23.33333333333333</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F2">
         <v>0.012</v>
@@ -659,7 +767,7 @@
         <v>9.525</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -667,16 +775,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>641.35</v>
       </c>
       <c r="E3">
-        <v>16.66666666666667</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="F3">
         <v>0.012</v>
@@ -685,7 +793,7 @@
         <v>9.525</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -693,16 +801,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>641.35</v>
       </c>
       <c r="E4">
-        <v>6.666666666666664</v>
+        <v>3.333333333333336</v>
       </c>
       <c r="F4">
         <v>0.012</v>
@@ -711,7 +819,7 @@
         <v>9.525</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -719,16 +827,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>641.35</v>
       </c>
       <c r="E5">
-        <v>23.33333333333334</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F5">
         <v>0.012</v>
@@ -737,7 +845,7 @@
         <v>9.525</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -745,16 +853,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>641.35</v>
       </c>
       <c r="E6">
-        <v>31.5</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="F6">
         <v>0.012</v>
@@ -763,7 +871,7 @@
         <v>9.525</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -771,16 +879,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>641.35</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>8.333333333333336</v>
       </c>
       <c r="F7">
         <v>0.012</v>
@@ -789,7 +897,7 @@
         <v>9.525</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -797,16 +905,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>641.35</v>
       </c>
       <c r="E8">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>0.012</v>
@@ -815,7 +923,7 @@
         <v>9.525</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -823,16 +931,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>641.35</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>15.75</v>
       </c>
       <c r="F9">
         <v>0.012</v>
@@ -841,7 +949,7 @@
         <v>9.525</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -849,16 +957,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>641.35</v>
       </c>
       <c r="E10">
-        <v>17.5</v>
+        <v>10.25000000000001</v>
       </c>
       <c r="F10">
         <v>0.012</v>
@@ -867,7 +975,7 @@
         <v>9.525</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -875,16 +983,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>641.35</v>
       </c>
       <c r="E11">
-        <v>32.5</v>
+        <v>5.499999999999993</v>
       </c>
       <c r="F11">
         <v>0.012</v>
@@ -893,7 +1001,7 @@
         <v>9.525</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -901,16 +1009,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>641.35</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="F12">
         <v>0.012</v>
@@ -919,7 +1027,7 @@
         <v>9.525</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -927,16 +1035,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>641.35</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>4.333333333333343</v>
       </c>
       <c r="F13">
         <v>0.012</v>
@@ -945,7 +1053,7 @@
         <v>9.525</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -953,16 +1061,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>641.35</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="F14">
         <v>0.012</v>
@@ -971,7 +1079,7 @@
         <v>9.525</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -979,25 +1087,467 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>641.35</v>
+      </c>
+      <c r="E15">
+        <v>14.16666666666669</v>
+      </c>
+      <c r="F15">
+        <v>0.012</v>
+      </c>
+      <c r="G15">
+        <v>9.525</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>641.35</v>
+      </c>
+      <c r="E16">
+        <v>1.999999999999986</v>
+      </c>
+      <c r="F16">
+        <v>0.012</v>
+      </c>
+      <c r="G16">
+        <v>9.525</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>641.35</v>
+      </c>
+      <c r="E17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F17">
+        <v>0.012</v>
+      </c>
+      <c r="G17">
+        <v>9.525</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <v>641.35</v>
+      </c>
+      <c r="E18">
+        <v>7.333333333333343</v>
+      </c>
+      <c r="F18">
+        <v>0.012</v>
+      </c>
+      <c r="G18">
+        <v>9.525</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>641.35</v>
+      </c>
+      <c r="E19">
+        <v>9.333333333333329</v>
+      </c>
+      <c r="F19">
+        <v>0.012</v>
+      </c>
+      <c r="G19">
+        <v>9.525</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <v>641.35</v>
+      </c>
+      <c r="E20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F20">
+        <v>0.012</v>
+      </c>
+      <c r="G20">
+        <v>9.525</v>
+      </c>
+      <c r="H20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>641.35</v>
+      </c>
+      <c r="E21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F21">
+        <v>0.012</v>
+      </c>
+      <c r="G21">
+        <v>9.525</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>641.35</v>
+      </c>
+      <c r="E22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F22">
+        <v>0.012</v>
+      </c>
+      <c r="G22">
+        <v>9.525</v>
+      </c>
+      <c r="H22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23">
+        <v>641.35</v>
+      </c>
+      <c r="E23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F23">
+        <v>0.012</v>
+      </c>
+      <c r="G23">
+        <v>9.525</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24">
+        <v>641.35</v>
+      </c>
+      <c r="E24">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="F24">
+        <v>0.012</v>
+      </c>
+      <c r="G24">
+        <v>9.525</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>641.35</v>
+      </c>
+      <c r="E25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F25">
+        <v>0.012</v>
+      </c>
+      <c r="G25">
+        <v>9.525</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26">
+        <v>641.35</v>
+      </c>
+      <c r="E26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F26">
+        <v>0.012</v>
+      </c>
+      <c r="G26">
+        <v>9.525</v>
+      </c>
+      <c r="H26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27">
+        <v>641.35</v>
+      </c>
+      <c r="E27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F27">
+        <v>0.012</v>
+      </c>
+      <c r="G27">
+        <v>9.525</v>
+      </c>
+      <c r="H27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <v>641.35</v>
+      </c>
+      <c r="E28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F28">
+        <v>0.012</v>
+      </c>
+      <c r="G28">
+        <v>9.525</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15">
-        <v>641.35</v>
-      </c>
-      <c r="E15">
-        <v>50</v>
-      </c>
-      <c r="F15">
-        <v>0.012</v>
-      </c>
-      <c r="G15">
-        <v>9.525</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <v>641.35</v>
+      </c>
+      <c r="E29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F29">
+        <v>0.012</v>
+      </c>
+      <c r="G29">
+        <v>9.525</v>
+      </c>
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <v>641.35</v>
+      </c>
+      <c r="E30">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="F30">
+        <v>0.012</v>
+      </c>
+      <c r="G30">
+        <v>9.525</v>
+      </c>
+      <c r="H30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31">
+        <v>641.35</v>
+      </c>
+      <c r="E31">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F31">
+        <v>0.012</v>
+      </c>
+      <c r="G31">
+        <v>9.525</v>
+      </c>
+      <c r="H31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32">
+        <v>641.35</v>
+      </c>
+      <c r="E32">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F32">
+        <v>0.012</v>
+      </c>
+      <c r="G32">
+        <v>9.525</v>
+      </c>
+      <c r="H32" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1015,15 +1565,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>4.865822962046021</v>
@@ -1031,7 +1581,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>4.865822962046021</v>
@@ -1039,7 +1589,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>4.865822962046021</v>
@@ -1047,7 +1597,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>4.865822962046021</v>
@@ -1055,7 +1605,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>4.865822962046021</v>
@@ -1063,7 +1613,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>4.865822962046021</v>
@@ -1071,7 +1621,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>4.865822962046021</v>
@@ -1079,7 +1629,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>4.865822962046021</v>
@@ -1087,7 +1637,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>4.865822962046021</v>
@@ -1095,7 +1645,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B11">
         <v>4.865822962046021</v>
@@ -1103,7 +1653,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>4.865822962046021</v>
@@ -1111,7 +1661,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>4.865822962046021</v>
@@ -1119,7 +1669,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>4.865822962046021</v>
@@ -1127,7 +1677,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>4.865822962046021</v>
@@ -1135,7 +1685,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>4.865822962046021</v>
@@ -1143,7 +1693,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>4.865822962046021</v>
@@ -1151,7 +1701,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B18">
         <v>4.865822962046021</v>
@@ -1159,7 +1709,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>4.865822962046021</v>
@@ -1167,7 +1717,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>4.865822962046021</v>
@@ -1175,7 +1725,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>4.865822962046021</v>
@@ -1183,7 +1733,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>4.865822962046021</v>
@@ -1191,7 +1741,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>4.865822962046021</v>
@@ -1199,7 +1749,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>4.865822962046021</v>
@@ -1207,7 +1757,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B25">
         <v>4.865822962046021</v>
@@ -1215,9 +1765,153 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B26">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43">
+        <v>4.865822962046021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44">
         <v>4.865822962046021</v>
       </c>
     </row>
@@ -1228,7 +1922,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1236,7 +1930,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1245,30 +1939,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>4.865822962046021</v>
@@ -1288,13 +1982,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>4.865822962046021</v>
@@ -1314,13 +2008,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>4.865822962046021</v>
@@ -1340,13 +2034,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>4.865822962046021</v>
@@ -1366,13 +2060,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>4.865822962046021</v>
@@ -1392,13 +2086,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>4.865822962046021</v>
@@ -1418,19 +2112,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>4.865822962046021</v>
       </c>
       <c r="E8">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1444,19 +2138,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>4.865822962046021</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1470,19 +2164,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>4.865822962046021</v>
       </c>
       <c r="E10">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1496,19 +2190,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>4.865822962046021</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1517,6 +2211,32 @@
         <v>0.78</v>
       </c>
       <c r="H11">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.78</v>
+      </c>
+      <c r="H12">
         <v>0.357</v>
       </c>
     </row>
@@ -1535,24 +2255,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>4.865822962046021</v>
@@ -1573,21 +2293,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>1150.5204</v>
@@ -1595,10 +2315,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>2991.353</v>
@@ -1606,10 +2326,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>2301.0408</v>
@@ -1630,15 +2350,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -1646,7 +2366,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <v>0.2</v>
